--- a/Project1/s03_1.xlsx
+++ b/Project1/s03_1.xlsx
@@ -386,2382 +386,2382 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>36.47507500437028</v>
+        <v>98.66363298347549</v>
       </c>
       <c r="B2">
-        <v>35.62671249453489</v>
+        <v>96.73314638506228</v>
       </c>
       <c r="C2">
-        <v>37.32343751420566</v>
+        <v>100.5941195818887</v>
       </c>
       <c r="D2">
-        <v>35.17761650967072</v>
+        <v>95.71120851047411</v>
       </c>
       <c r="E2">
-        <v>37.77253349906983</v>
+        <v>101.6160574564769</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>36.37389893455931</v>
+        <v>98.66797868344656</v>
       </c>
       <c r="B3">
-        <v>35.25047556037389</v>
+        <v>96.1527438574567</v>
       </c>
       <c r="C3">
-        <v>37.49732230874472</v>
+        <v>101.1832135094364</v>
       </c>
       <c r="D3">
-        <v>34.65577114946454</v>
+        <v>94.82125896951442</v>
       </c>
       <c r="E3">
-        <v>38.09202671965407</v>
+        <v>102.5146983973787</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>36.29121630343754</v>
+        <v>98.66726249791037</v>
       </c>
       <c r="B4">
-        <v>34.93013280691801</v>
+        <v>95.65099661483266</v>
       </c>
       <c r="C4">
-        <v>37.65229979995708</v>
+        <v>101.6835283809881</v>
       </c>
       <c r="D4">
-        <v>34.20961872683399</v>
+        <v>94.05428190659333</v>
       </c>
       <c r="E4">
-        <v>38.3728138800411</v>
+        <v>103.2802430892274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>36.77564000760675</v>
+        <v>98.66738052762381</v>
       </c>
       <c r="B5">
-        <v>35.19666330722978</v>
+        <v>95.2263606712892</v>
       </c>
       <c r="C5">
-        <v>38.35461670798373</v>
+        <v>102.1084003839584</v>
       </c>
       <c r="D5">
-        <v>34.36080353253161</v>
+        <v>93.40479479184265</v>
       </c>
       <c r="E5">
-        <v>39.1904764826819</v>
+        <v>103.929966263405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>36.79933343981975</v>
+        <v>98.66736107594187</v>
       </c>
       <c r="B6">
-        <v>35.01440169408917</v>
+        <v>94.84792468792308</v>
       </c>
       <c r="C6">
-        <v>38.58426518555032</v>
+        <v>102.4867974639607</v>
       </c>
       <c r="D6">
-        <v>34.06951590414574</v>
+        <v>92.82603719711896</v>
       </c>
       <c r="E6">
-        <v>39.52915097549376</v>
+        <v>104.5086849547648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>36.61811056461982</v>
+        <v>98.66736428164252</v>
       </c>
       <c r="B7">
-        <v>34.63492275556283</v>
+        <v>94.50385698323012</v>
       </c>
       <c r="C7">
-        <v>38.60129837367681</v>
+        <v>102.8308715800549</v>
       </c>
       <c r="D7">
-        <v>33.58508654527121</v>
+        <v>92.29982935471963</v>
       </c>
       <c r="E7">
-        <v>39.65113458396843</v>
+        <v>105.0348992085654</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>36.2952769759769</v>
+        <v>98.66736375333259</v>
       </c>
       <c r="B8">
-        <v>34.11895693533402</v>
+        <v>94.18611170396839</v>
       </c>
       <c r="C8">
-        <v>38.47159701661978</v>
+        <v>103.1486158026968</v>
       </c>
       <c r="D8">
-        <v>32.96688269737435</v>
+        <v>91.81388016473605</v>
       </c>
       <c r="E8">
-        <v>39.62367125457944</v>
+        <v>105.5208473419291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>36.34098264816038</v>
+        <v>98.6673638403998</v>
       </c>
       <c r="B9">
-        <v>33.97496694901646</v>
+        <v>93.88945365840033</v>
       </c>
       <c r="C9">
-        <v>38.70699834730431</v>
+        <v>103.4452740223993</v>
       </c>
       <c r="D9">
-        <v>32.72247389528955</v>
+        <v>91.3601807899022</v>
       </c>
       <c r="E9">
-        <v>39.95949140103122</v>
+        <v>105.9745468908974</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>36.78003636637571</v>
+        <v>98.66736382605085</v>
       </c>
       <c r="B10">
-        <v>34.2265951891383</v>
+        <v>93.61016747168152</v>
       </c>
       <c r="C10">
-        <v>39.33347754361312</v>
+        <v>103.7245601804202</v>
       </c>
       <c r="D10">
-        <v>32.87488508055903</v>
+        <v>90.93304943418397</v>
       </c>
       <c r="E10">
-        <v>40.68518765219239</v>
+        <v>106.4016782179177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>36.60926258083303</v>
+        <v>98.6673638284156</v>
       </c>
       <c r="B11">
-        <v>33.86982697434472</v>
+        <v>93.34551794073883</v>
       </c>
       <c r="C11">
-        <v>39.34869818732133</v>
+        <v>103.9892097160924</v>
       </c>
       <c r="D11">
-        <v>32.41965736241011</v>
+        <v>90.52830290292992</v>
       </c>
       <c r="E11">
-        <v>40.79886779925595</v>
+        <v>106.8064247539013</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>37.06829528250022</v>
+        <v>98.66736382802588</v>
       </c>
       <c r="B12">
-        <v>34.14367378052893</v>
+        <v>93.09341976369484</v>
       </c>
       <c r="C12">
-        <v>39.9929167844715</v>
+        <v>104.2413078923569</v>
       </c>
       <c r="D12">
-        <v>32.59547267716146</v>
+        <v>90.14275201243565</v>
       </c>
       <c r="E12">
-        <v>41.54111788783897</v>
+        <v>107.1919756436161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>36.94299892178776</v>
+        <v>98.66736382809012</v>
       </c>
       <c r="B13">
-        <v>33.83352691508853</v>
+        <v>92.85224033870364</v>
       </c>
       <c r="C13">
-        <v>40.05247092848699</v>
+        <v>104.4824873174766</v>
       </c>
       <c r="D13">
-        <v>32.18747186542924</v>
+        <v>89.77389991194484</v>
       </c>
       <c r="E13">
-        <v>41.69852597814629</v>
+        <v>107.5608277442354</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>37.27092964045804</v>
+        <v>98.66736382807953</v>
       </c>
       <c r="B14">
-        <v>33.92629593068598</v>
+        <v>92.6206730005354</v>
       </c>
       <c r="C14">
-        <v>40.61556335023009</v>
+        <v>104.7140546556237</v>
       </c>
       <c r="D14">
-        <v>32.15575379511771</v>
+        <v>89.41974822971778</v>
       </c>
       <c r="E14">
-        <v>42.38610548579836</v>
+        <v>107.9149794264413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>37.16975357064707</v>
+        <v>98.66736382808128</v>
       </c>
       <c r="B15">
-        <v>33.64255710258036</v>
+        <v>92.39765261219783</v>
       </c>
       <c r="C15">
-        <v>40.69695003871378</v>
+        <v>104.9370750439647</v>
       </c>
       <c r="D15">
-        <v>31.77537208052743</v>
+        <v>89.07866797925183</v>
       </c>
       <c r="E15">
-        <v>42.5641350607667</v>
+        <v>108.2560596769107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>37.0870709395253</v>
+        <v>98.66736382808099</v>
       </c>
       <c r="B16">
-        <v>33.37650649535649</v>
+        <v>92.18229732901462</v>
       </c>
       <c r="C16">
-        <v>40.79763538369412</v>
+        <v>105.1524303271474</v>
       </c>
       <c r="D16">
-        <v>31.41225233025986</v>
+        <v>88.74931049550521</v>
       </c>
       <c r="E16">
-        <v>42.76188954879075</v>
+        <v>108.5854171606568</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>37.57149464369451</v>
+        <v>98.66736382808104</v>
       </c>
       <c r="B17">
-        <v>33.67660835340949</v>
+        <v>91.97386726320258</v>
       </c>
       <c r="C17">
-        <v>41.46638093397953</v>
+        <v>105.3608603929595</v>
       </c>
       <c r="D17">
-        <v>31.61478009698532</v>
+        <v>88.4305442177602</v>
       </c>
       <c r="E17">
-        <v>43.5282091904037</v>
+        <v>108.9041834384019</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>37.5951880759075</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B18">
-        <v>33.51490488281323</v>
+        <v>91.77173441295376</v>
       </c>
       <c r="C18">
-        <v>41.67547126900178</v>
+        <v>105.5629932432083</v>
       </c>
       <c r="D18">
-        <v>31.35493343442499</v>
+        <v>88.12140870013337</v>
       </c>
       <c r="E18">
-        <v>43.83544271739001</v>
+        <v>109.2133189560287</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>37.41396520070758</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B19">
-        <v>33.14711067883012</v>
+        <v>91.57536031726008</v>
       </c>
       <c r="C19">
-        <v>41.68081972258504</v>
+        <v>105.759367338902</v>
       </c>
       <c r="D19">
-        <v>30.88837433492151</v>
+        <v>87.82108043757712</v>
       </c>
       <c r="E19">
-        <v>43.93955606649365</v>
+        <v>109.5136472185849</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>37.09113161206466</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B20">
-        <v>32.63644949197464</v>
+        <v>91.38427914065461</v>
       </c>
       <c r="C20">
-        <v>41.54581373215468</v>
+        <v>105.9504485155074</v>
       </c>
       <c r="D20">
-        <v>30.27828322368109</v>
+        <v>87.52884699622427</v>
       </c>
       <c r="E20">
-        <v>43.90398000044822</v>
+        <v>109.8058806599378</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>37.13683728424815</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B21">
-        <v>32.4930036709344</v>
+        <v>91.19808465730736</v>
       </c>
       <c r="C21">
-        <v>41.78067089756189</v>
+        <v>106.1366429988547</v>
       </c>
       <c r="D21">
-        <v>30.03470665057082</v>
+        <v>87.24408710728012</v>
       </c>
       <c r="E21">
-        <v>44.23896791792547</v>
+        <v>110.0906405488819</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>37.57589100246347</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B22">
-        <v>32.74152601066892</v>
+        <v>91.01642008905891</v>
       </c>
       <c r="C22">
-        <v>42.41025599425802</v>
+        <v>106.3183075671031</v>
       </c>
       <c r="D22">
-        <v>30.1823677711044</v>
+        <v>86.96625512563632</v>
       </c>
       <c r="E22">
-        <v>44.96941423382254</v>
+        <v>110.3684725305257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>37.40511721692079</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B23">
-        <v>32.37879456710687</v>
+        <v>90.83897006790198</v>
       </c>
       <c r="C23">
-        <v>42.43143986673471</v>
+        <v>106.4957575882601</v>
       </c>
       <c r="D23">
-        <v>29.71802008156142</v>
+        <v>86.69486873754694</v>
       </c>
       <c r="E23">
-        <v>45.09221435228015</v>
+        <v>110.6398589186151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>37.86414991858798</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B24">
-        <v>32.64440490581987</v>
+        <v>90.66545420405137</v>
       </c>
       <c r="C24">
-        <v>43.08389493135609</v>
+        <v>106.6692734521107</v>
       </c>
       <c r="D24">
-        <v>29.88123880633745</v>
+        <v>86.42949912384042</v>
       </c>
       <c r="E24">
-        <v>45.8470610308385</v>
+        <v>110.9052285323216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>37.73885355787552</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B25">
-        <v>32.32418971046189</v>
+        <v>90.49562188417048</v>
       </c>
       <c r="C25">
-        <v>43.15351740528916</v>
+        <v>106.8391057719916</v>
       </c>
       <c r="D25">
-        <v>29.45783981278134</v>
+        <v>86.16976300449357</v>
       </c>
       <c r="E25">
-        <v>46.0198673029697</v>
+        <v>111.1649646516685</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>38.0667842765458</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B26">
-        <v>32.41623587238734</v>
+        <v>90.32924802386032</v>
       </c>
       <c r="C26">
-        <v>43.71733268070425</v>
+        <v>107.0054796323017</v>
       </c>
       <c r="D26">
-        <v>29.42501623317835</v>
+        <v>85.91531614262402</v>
       </c>
       <c r="E26">
-        <v>46.70855231991324</v>
+        <v>111.419411513538</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>37.96560820673482</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B27">
-        <v>32.11840961827283</v>
+        <v>90.16612956879116</v>
       </c>
       <c r="C27">
-        <v>43.81280679519681</v>
+        <v>107.1685980873709</v>
       </c>
       <c r="D27">
-        <v>29.02308965971963</v>
+        <v>85.66584799343295</v>
       </c>
       <c r="E27">
-        <v>46.90812675375001</v>
+        <v>111.6688796627291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>37.88292557561306</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B28">
-        <v>31.83743759554032</v>
+        <v>90.00608258925429</v>
       </c>
       <c r="C28">
-        <v>43.92841355568579</v>
+        <v>107.3286450669078</v>
       </c>
       <c r="D28">
-        <v>28.63714957371094</v>
+        <v>85.42107726070523</v>
       </c>
       <c r="E28">
-        <v>47.12870157751517</v>
+        <v>111.9136503954568</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>38.36734927978227</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B29">
-        <v>32.12192520512105</v>
+        <v>89.84893984956987</v>
       </c>
       <c r="C29">
-        <v>44.61277335444349</v>
+        <v>107.4857878065922</v>
       </c>
       <c r="D29">
-        <v>28.8157974081152</v>
+        <v>85.18074817953985</v>
       </c>
       <c r="E29">
-        <v>47.91890115144933</v>
+        <v>112.1539794766222</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>38.39104271199526</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B30">
-        <v>31.94403053191385</v>
+        <v>89.6945487608065</v>
       </c>
       <c r="C30">
-        <v>44.83805489207667</v>
+        <v>107.6401788953555</v>
       </c>
       <c r="D30">
-        <v>28.53118843802312</v>
+        <v>84.94462738530434</v>
       </c>
       <c r="E30">
-        <v>48.2508969859674</v>
+        <v>112.3901002708577</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>38.20981983679534</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B31">
-        <v>31.55956410470292</v>
+        <v>89.54276964542079</v>
       </c>
       <c r="C31">
-        <v>44.86007556888777</v>
+        <v>107.7919580107413</v>
       </c>
       <c r="D31">
-        <v>28.03913137343785</v>
+        <v>84.71250125963032</v>
       </c>
       <c r="E31">
-        <v>48.38050830015283</v>
+        <v>112.6222263965317</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>37.88698624815242</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B32">
-        <v>31.03182968681608</v>
+        <v>89.39347425762756</v>
       </c>
       <c r="C32">
-        <v>44.74214280948876</v>
+        <v>107.9412533985345</v>
       </c>
       <c r="D32">
-        <v>27.40292900860386</v>
+        <v>84.48417366751481</v>
       </c>
       <c r="E32">
-        <v>48.37104348770097</v>
+        <v>112.8505539886472</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>37.93269192033591</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B33">
-        <v>30.87097680030485</v>
+        <v>89.24654451489526</v>
       </c>
       <c r="C33">
-        <v>44.99440704036697</v>
+        <v>108.0881831412668</v>
       </c>
       <c r="D33">
-        <v>27.13273062618294</v>
+        <v>84.25946401730994</v>
       </c>
       <c r="E33">
-        <v>48.73265321448886</v>
+        <v>113.0752636388521</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>38.37174563855123</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B34">
-        <v>31.10181496335904</v>
+        <v>89.10187140487446</v>
       </c>
       <c r="C34">
-        <v>45.64167631374342</v>
+        <v>108.2328562512876</v>
       </c>
       <c r="D34">
-        <v>27.25334613238344</v>
+        <v>84.03820558901432</v>
       </c>
       <c r="E34">
-        <v>49.49014514471902</v>
+        <v>113.2965220671477</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>38.20097185300855</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B35">
-        <v>30.72117037910217</v>
+        <v>88.95935403898673</v>
       </c>
       <c r="C35">
-        <v>45.68077332691492</v>
+        <v>108.3753736171753</v>
       </c>
       <c r="D35">
-        <v>26.76160265826513</v>
+        <v>83.82024408686223</v>
       </c>
       <c r="E35">
-        <v>49.64034104775197</v>
+        <v>113.5144835692998</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>38.66000455467574</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B36">
-        <v>30.96867966951621</v>
+        <v>88.81889882931706</v>
       </c>
       <c r="C36">
-        <v>46.35132943983526</v>
+        <v>108.515828826845</v>
       </c>
       <c r="D36">
-        <v>26.89713821858472</v>
+        <v>83.60543638048907</v>
       </c>
       <c r="E36">
-        <v>50.42287089076676</v>
+        <v>113.729291275673</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>38.53470819396328</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B37">
-        <v>30.63021067205141</v>
+        <v>88.68041876972573</v>
       </c>
       <c r="C37">
-        <v>46.43920571587515</v>
+        <v>108.6543088864363</v>
       </c>
       <c r="D37">
-        <v>26.44582244378298</v>
+        <v>83.39364940548691</v>
       </c>
       <c r="E37">
-        <v>50.62359394414357</v>
+        <v>113.9410782506751</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>38.86263891263355</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B38">
-        <v>30.70924314108774</v>
+        <v>88.54383280549135</v>
       </c>
       <c r="C38">
-        <v>47.01603468417936</v>
+        <v>108.7908948506707</v>
       </c>
       <c r="D38">
-        <v>26.39309613841047</v>
+        <v>83.18475919935672</v>
       </c>
       <c r="E38">
-        <v>51.33218168685663</v>
+        <v>114.1499684568053</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38.76146284282258</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B39">
-        <v>30.39249007926554</v>
+        <v>88.40906527851327</v>
       </c>
       <c r="C39">
-        <v>47.13043560637962</v>
+        <v>108.9256623776488</v>
       </c>
       <c r="D39">
-        <v>25.96222351046067</v>
+        <v>82.9786500530187</v>
       </c>
       <c r="E39">
-        <v>51.56070217518449</v>
+        <v>114.3560776031433</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>38.67878021170082</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B40">
-        <v>30.09255674809909</v>
+        <v>88.27604543728997</v>
       </c>
       <c r="C40">
-        <v>47.26500367530255</v>
+        <v>109.0586822188721</v>
       </c>
       <c r="D40">
-        <v>25.54728460565338</v>
+        <v>82.77521376138878</v>
       </c>
       <c r="E40">
-        <v>51.81027581774826</v>
+        <v>114.5595138947733</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>39.16320391587003</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B41">
-        <v>30.35806387107567</v>
+        <v>88.1447070026628</v>
       </c>
       <c r="C41">
-        <v>47.96834396066438</v>
+        <v>109.1900206534992</v>
       </c>
       <c r="D41">
-        <v>25.6969042907788</v>
+        <v>82.57434895924115</v>
       </c>
       <c r="E41">
-        <v>52.62950354096125</v>
+        <v>114.7603786969209</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>39.18689734808302</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B42">
-        <v>30.16118283379039</v>
+        <v>88.01498778175929</v>
       </c>
       <c r="C42">
-        <v>48.21261186237565</v>
+        <v>109.3197398744028</v>
       </c>
       <c r="D42">
-        <v>25.38325818258717</v>
+        <v>82.37596053078533</v>
       </c>
       <c r="E42">
-        <v>52.99053651357887</v>
+        <v>114.9587671253767</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>39.0056744728831</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B43">
-        <v>29.75773572558038</v>
+        <v>87.88682932375437</v>
       </c>
       <c r="C43">
-        <v>48.25361322018583</v>
+        <v>109.4478983324077</v>
       </c>
       <c r="D43">
-        <v>24.86217267142165</v>
+        <v>82.17995908319857</v>
       </c>
       <c r="E43">
-        <v>53.14917627434456</v>
+        <v>115.1547685729635</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>38.68284088424018</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B44">
-        <v>29.21103636761099</v>
+        <v>87.76017661204288</v>
       </c>
       <c r="C44">
-        <v>48.15464540086937</v>
+        <v>109.5745510441192</v>
       </c>
       <c r="D44">
-        <v>24.19696593366181</v>
+        <v>81.98626047584416</v>
       </c>
       <c r="E44">
-        <v>53.16871583481855</v>
+        <v>115.3484671803179</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>38.72854655642367</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B45">
-        <v>29.03124303805433</v>
+        <v>87.63497778822391</v>
       </c>
       <c r="C45">
-        <v>48.425850074793</v>
+        <v>109.6997498679381</v>
       </c>
       <c r="D45">
-        <v>23.89780064330029</v>
+        <v>81.79478539814201</v>
       </c>
       <c r="E45">
-        <v>53.55929246954704</v>
+        <v>115.53994225802</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>39.16760027463899</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B46">
-        <v>29.24317288037432</v>
+        <v>87.5111839039689</v>
       </c>
       <c r="C46">
-        <v>49.09202766890367</v>
+        <v>109.8235437521931</v>
       </c>
       <c r="D46">
-        <v>23.9894983683958</v>
+        <v>81.60545899008363</v>
       </c>
       <c r="E46">
-        <v>54.34570218088219</v>
+        <v>115.7292686660784</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>38.99682648909631</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B47">
-        <v>28.84365873794891</v>
+        <v>87.38874869740603</v>
       </c>
       <c r="C47">
-        <v>49.1499942402437</v>
+        <v>109.945978958756</v>
       </c>
       <c r="D47">
-        <v>23.46889639540094</v>
+        <v>81.41821050024159</v>
       </c>
       <c r="E47">
-        <v>54.52475658279167</v>
+        <v>115.9165171559205</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>39.45585919076349</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B48">
-        <v>29.07234301290508</v>
+        <v>87.26762839112376</v>
       </c>
       <c r="C48">
-        <v>49.8393753686219</v>
+        <v>110.0670992650383</v>
       </c>
       <c r="D48">
-        <v>23.57564157904133</v>
+        <v>81.23297297684249</v>
       </c>
       <c r="E48">
-        <v>55.33607680248565</v>
+        <v>116.1017546793196</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>39.33056283005104</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B49">
-        <v>28.71509857009053</v>
+        <v>87.1477815092924</v>
       </c>
       <c r="C49">
-        <v>49.94602709001154</v>
+        <v>110.1869461468696</v>
       </c>
       <c r="D49">
-        <v>23.09561123849868</v>
+        <v>81.04968298807869</v>
       </c>
       <c r="E49">
-        <v>55.56551442160339</v>
+        <v>116.2850446680834</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>39.65849354872131</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B50">
-        <v>28.77888664012859</v>
+        <v>87.02916871173777</v>
       </c>
       <c r="C50">
-        <v>50.53810045731403</v>
+        <v>110.3055589444243</v>
       </c>
       <c r="D50">
-        <v>23.01957063676395</v>
+        <v>80.86828036834578</v>
       </c>
       <c r="E50">
-        <v>56.29741646067867</v>
+        <v>116.4664472878163</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>39.55731747891034</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B51">
-        <v>28.44323577636425</v>
+        <v>86.91175264308497</v>
       </c>
       <c r="C51">
-        <v>50.67139918145643</v>
+        <v>110.4229750130771</v>
       </c>
       <c r="D51">
-        <v>22.55979631481339</v>
+        <v>80.68870798752786</v>
       </c>
       <c r="E51">
-        <v>56.55483864300729</v>
+        <v>116.6460196686342</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>39.47463484778858</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B52">
-        <v>28.12448111943683</v>
+        <v>86.79549779533231</v>
       </c>
       <c r="C52">
-        <v>50.82478857614033</v>
+        <v>110.5392298608297</v>
       </c>
       <c r="D52">
-        <v>22.11607267623136</v>
+        <v>80.51091154082259</v>
       </c>
       <c r="E52">
-        <v>56.8331970193458</v>
+        <v>116.8238161153395</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>39.95905855195779</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B53">
-        <v>28.37124499476399</v>
+        <v>86.68037038242247</v>
       </c>
       <c r="C53">
-        <v>51.54687210915159</v>
+        <v>110.6543572737396</v>
       </c>
       <c r="D53">
-        <v>22.23702703774917</v>
+        <v>80.33483935691427</v>
       </c>
       <c r="E53">
-        <v>57.68109006616641</v>
+        <v>116.9998882992478</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>39.98275198417078</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B54">
-        <v>28.15570010807689</v>
+        <v>86.56633822555503</v>
       </c>
       <c r="C54">
-        <v>51.80980386026467</v>
+        <v>110.768389430607</v>
       </c>
       <c r="D54">
-        <v>21.89483703509091</v>
+        <v>80.16044222257453</v>
       </c>
       <c r="E54">
-        <v>58.07066693325065</v>
+        <v>117.1742854335875</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>39.80152910897086</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B55">
-        <v>27.73366962024811</v>
+        <v>86.45337064813705</v>
       </c>
       <c r="C55">
-        <v>51.86938859769361</v>
+        <v>110.881357008025</v>
       </c>
       <c r="D55">
-        <v>21.34533069737181</v>
+        <v>79.98767322200302</v>
       </c>
       <c r="E55">
-        <v>58.25772752056992</v>
+        <v>117.347054434159</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>39.47869552032794</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B56">
-        <v>27.16846820450441</v>
+        <v>86.34143837939985</v>
       </c>
       <c r="C56">
-        <v>51.78892283615147</v>
+        <v>110.9932892767622</v>
       </c>
       <c r="D56">
-        <v>20.65182750408689</v>
+        <v>79.81648758942215</v>
       </c>
       <c r="E56">
-        <v>58.305563536569</v>
+        <v>117.5182400667399</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>39.52440119251142</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B57">
-        <v>26.97025479721092</v>
+        <v>86.23051346582392</v>
       </c>
       <c r="C57">
-        <v>52.07854758781191</v>
+        <v>111.1042141903381</v>
       </c>
       <c r="D57">
-        <v>20.32449113584817</v>
+        <v>79.64684257361301</v>
       </c>
       <c r="E57">
-        <v>58.72431124917466</v>
+        <v>117.687885082549</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>39.96345491072675</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B58">
-        <v>27.16384702870686</v>
+        <v>86.12056918961248</v>
       </c>
       <c r="C58">
-        <v>52.76306279274663</v>
+        <v>111.2141584665496</v>
       </c>
       <c r="D58">
-        <v>20.38814390532585</v>
+        <v>79.47869731323156</v>
       </c>
       <c r="E58">
-        <v>59.53876591612765</v>
+        <v>117.8560303429305</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>39.79268112518406</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B59">
-        <v>26.74607807782039</v>
+        <v>86.01157999353994</v>
       </c>
       <c r="C59">
-        <v>52.83928417254774</v>
+        <v>111.3231476626221</v>
       </c>
       <c r="D59">
-        <v>19.83962361199936</v>
+        <v>79.31201272187423</v>
       </c>
       <c r="E59">
-        <v>59.74573863836876</v>
+        <v>118.0227149342878</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>40.25171382685125</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B60">
-        <v>26.95659054827947</v>
+        <v>85.90352141157652</v>
       </c>
       <c r="C60">
-        <v>53.54683710542304</v>
+        <v>111.4312062445855</v>
       </c>
       <c r="D60">
-        <v>19.91857741891644</v>
+        <v>79.1467513819774</v>
       </c>
       <c r="E60">
-        <v>60.58485023478607</v>
+        <v>118.1879762741846</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>40.1264174661388</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B61">
-        <v>26.58125738823508</v>
+        <v>85.79637000475533</v>
       </c>
       <c r="C61">
-        <v>53.67157754404251</v>
+        <v>111.5383576514067</v>
       </c>
       <c r="D61">
-        <v>19.41088277266017</v>
+        <v>78.98287744673463</v>
       </c>
       <c r="E61">
-        <v>60.84195215961743</v>
+        <v>118.3518502094274</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>40.45434818480907</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B62">
-        <v>26.62957242837692</v>
+        <v>85.69010330180598</v>
       </c>
       <c r="C62">
-        <v>54.27912394124122</v>
+        <v>111.6446243543561</v>
       </c>
       <c r="D62">
-        <v>19.31117821377875</v>
+        <v>78.82035654930353</v>
       </c>
       <c r="E62">
-        <v>61.59751815583939</v>
+        <v>118.5143711068585</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>40.3531721149981</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B63">
-        <v>26.27585603316534</v>
+        <v>85.58469974412837</v>
       </c>
       <c r="C63">
-        <v>54.43048819683087</v>
+        <v>111.7500279120337</v>
       </c>
       <c r="D63">
-        <v>18.82377504570906</v>
+        <v>78.65915571865048</v>
       </c>
       <c r="E63">
-        <v>61.88256918428715</v>
+        <v>118.6755719375116</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>40.27048948387634</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B64">
-        <v>25.9391263385951</v>
+        <v>85.48013863472541</v>
       </c>
       <c r="C64">
-        <v>54.60185262915758</v>
+        <v>111.8545890214366</v>
       </c>
       <c r="D64">
-        <v>18.35256095933869</v>
+        <v>78.49924330144995</v>
       </c>
       <c r="E64">
-        <v>62.18841800841399</v>
+        <v>118.8354843547121</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>40.75491318804555</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B65">
-        <v>26.16800490802704</v>
+        <v>85.37640009075176</v>
       </c>
       <c r="C65">
-        <v>55.34182146806406</v>
+        <v>111.9583275654103</v>
       </c>
       <c r="D65">
-        <v>18.44616210593361</v>
+        <v>78.34058888951408</v>
       </c>
       <c r="E65">
-        <v>63.06366427015749</v>
+        <v>118.994138766648</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>40.77860662025854</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B66">
-        <v>25.93466365948115</v>
+        <v>85.27346499937062</v>
       </c>
       <c r="C66">
-        <v>55.62254958103594</v>
+        <v>112.0612626567914</v>
       </c>
       <c r="D66">
-        <v>18.07675491651762</v>
+        <v>78.18316325228142</v>
       </c>
       <c r="E66">
-        <v>63.48045832399947</v>
+        <v>119.1515644038806</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>40.59738374505862</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B67">
-        <v>25.49492494481386</v>
+        <v>85.1713149766409</v>
       </c>
       <c r="C67">
-        <v>55.69984254530338</v>
+        <v>112.1634126795211</v>
       </c>
       <c r="D67">
-        <v>17.50016618292256</v>
+        <v>78.02693827394033</v>
       </c>
       <c r="E67">
-        <v>63.69460130719469</v>
+        <v>119.3077893822217</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>40.2745501564157</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B68">
-        <v>24.91210261078517</v>
+        <v>85.06993232918438</v>
       </c>
       <c r="C68">
-        <v>55.63699770204623</v>
+        <v>112.2647953269777</v>
       </c>
       <c r="D68">
-        <v>16.77971412067158</v>
+        <v>77.87188689480394</v>
       </c>
       <c r="E68">
-        <v>63.76938619215982</v>
+        <v>119.4628407613581</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>40.32025582859918</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B69">
-        <v>24.69635475325843</v>
+        <v>84.9693000184065</v>
       </c>
       <c r="C69">
-        <v>55.94415690393993</v>
+        <v>112.3654276377555</v>
       </c>
       <c r="D69">
-        <v>16.42556112494017</v>
+        <v>77.71798305659054</v>
       </c>
       <c r="E69">
-        <v>64.2149505322582</v>
+        <v>119.6167445995715</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>40.75930954681451</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B70">
-        <v>24.87249815106274</v>
+        <v>84.86940162706586</v>
       </c>
       <c r="C70">
-        <v>56.64612094256627</v>
+        <v>112.4653260290962</v>
       </c>
       <c r="D70">
-        <v>16.46252820612619</v>
+        <v>77.56520165129614</v>
       </c>
       <c r="E70">
-        <v>65.05609088750282</v>
+        <v>119.7695260048659</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>40.58853576127182</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B71">
-        <v>24.43736512318939</v>
+        <v>84.77022132800671</v>
       </c>
       <c r="C71">
-        <v>56.73970639935425</v>
+        <v>112.5645063281553</v>
       </c>
       <c r="D71">
-        <v>15.88745184870204</v>
+        <v>77.41351847337482</v>
       </c>
       <c r="E71">
-        <v>65.2896196738416</v>
+        <v>119.9212091827872</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>41.04756846293901</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B72">
-        <v>24.63059740757738</v>
+        <v>84.67174385488583</v>
       </c>
       <c r="C72">
-        <v>57.46453951830064</v>
+        <v>112.6629838012762</v>
       </c>
       <c r="D72">
-        <v>15.93997789160551</v>
+        <v>77.26291017496945</v>
       </c>
       <c r="E72">
-        <v>66.15515903427252</v>
+        <v>120.0718174811926</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>40.92227210222656</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B73">
-        <v>24.23806708273855</v>
+        <v>84.57395447474042</v>
       </c>
       <c r="C73">
-        <v>57.60647712171456</v>
+        <v>112.7607731814216</v>
       </c>
       <c r="D73">
-        <v>15.40598245142138</v>
+        <v>77.11335422395777</v>
       </c>
       <c r="E73">
-        <v>66.43856175303174</v>
+        <v>120.2213734322043</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>41.25020282089683</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B74">
-        <v>24.27123426825344</v>
+        <v>84.47683896225746</v>
       </c>
       <c r="C74">
-        <v>58.22917137354023</v>
+        <v>112.8578886939046</v>
       </c>
       <c r="D74">
-        <v>15.28311124805207</v>
+        <v>76.964828864601</v>
       </c>
       <c r="E74">
-        <v>67.21729439374158</v>
+        <v>120.369898791561</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>41.14902675108586</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B75">
-        <v>23.90038828708481</v>
+        <v>84.38038357561742</v>
       </c>
       <c r="C75">
-        <v>58.39766521508692</v>
+        <v>112.9543440805446</v>
       </c>
       <c r="D75">
-        <v>14.76951063896748</v>
+        <v>76.81731308059972</v>
       </c>
       <c r="E75">
-        <v>67.52854286320425</v>
+        <v>120.5174145755623</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>41.0663441199641</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B76">
-        <v>23.54661384193716</v>
+        <v>84.2845750337959</v>
       </c>
       <c r="C76">
-        <v>58.58607439799104</v>
+        <v>113.0501526223661</v>
       </c>
       <c r="D76">
-        <v>14.27222885609908</v>
+        <v>76.67078656037995</v>
       </c>
       <c r="E76">
-        <v>67.86045938382912</v>
+        <v>120.6639410957821</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>41.55076782413331</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B77">
-        <v>23.75853138735027</v>
+        <v>84.18940049521746</v>
       </c>
       <c r="C77">
-        <v>59.34300426091635</v>
+        <v>113.1453271609446</v>
       </c>
       <c r="D77">
-        <v>14.33989035491736</v>
+        <v>76.52522966444677</v>
       </c>
       <c r="E77">
-        <v>68.76164529334926</v>
+        <v>120.8094979917153</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>41.5744612563463</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B78">
-        <v>23.50831175136634</v>
+        <v>84.09484753766398</v>
       </c>
       <c r="C78">
-        <v>59.64061076132626</v>
+        <v>113.2398801184981</v>
       </c>
       <c r="D78">
-        <v>13.94466989946895</v>
+        <v>76.38062339465705</v>
       </c>
       <c r="E78">
-        <v>69.20425261322365</v>
+        <v>120.954104261505</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>41.39323838114638</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B79">
-        <v>23.05177621456184</v>
+        <v>84.0009041393491</v>
       </c>
       <c r="C79">
-        <v>59.73470054773091</v>
+        <v>113.3338235168129</v>
       </c>
       <c r="D79">
-        <v>13.34239264320437</v>
+        <v>76.23694936527517</v>
       </c>
       <c r="E79">
-        <v>69.44408411908837</v>
+        <v>121.0977782908869</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>41.07040479250345</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B80">
-        <v>22.45223757094196</v>
+        <v>83.90755866107672</v>
       </c>
       <c r="C80">
-        <v>59.68857201406495</v>
+        <v>113.4271689950853</v>
       </c>
       <c r="D80">
-        <v>12.59637519159723</v>
+        <v>76.09418977568676</v>
       </c>
       <c r="E80">
-        <v>69.54443439340969</v>
+        <v>121.2405378804753</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>41.11611046468694</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B81">
-        <v>22.21985288194438</v>
+        <v>83.81479982940876</v>
       </c>
       <c r="C81">
-        <v>60.0123680474295</v>
+        <v>113.5199278267533</v>
       </c>
       <c r="D81">
-        <v>12.21677835780545</v>
+        <v>75.95232738465613</v>
       </c>
       <c r="E81">
-        <v>70.01544257156843</v>
+        <v>121.3824002715059</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>41.55516418290227</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B82">
-        <v>22.3794379100858</v>
+        <v>83.72261672077326</v>
       </c>
       <c r="C82">
-        <v>60.73089045571874</v>
+        <v>113.6121109353888</v>
       </c>
       <c r="D82">
-        <v>12.22842159791124</v>
+        <v>75.81134548602161</v>
       </c>
       <c r="E82">
-        <v>70.8819067678933</v>
+        <v>121.5233821701404</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>41.38439039735958</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B83">
-        <v>21.92782397592606</v>
+        <v>83.63099874644935</v>
       </c>
       <c r="C83">
-        <v>60.8409568187931</v>
+        <v>113.7037289097127</v>
       </c>
       <c r="D83">
-        <v>11.62813986941787</v>
+        <v>75.67122788573209</v>
       </c>
       <c r="E83">
-        <v>71.14064092530128</v>
+        <v>121.66349977043</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>41.84342309902677</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B84">
-        <v>22.10465183660743</v>
+        <v>83.53993563837076</v>
       </c>
       <c r="C84">
-        <v>61.58219436144611</v>
+        <v>113.7947920177913</v>
       </c>
       <c r="D84">
-        <v>11.65557751126395</v>
+        <v>75.53195888013538</v>
       </c>
       <c r="E84">
-        <v>72.03126868678959</v>
+        <v>121.8027687760267</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>41.71812673831432</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B85">
-        <v>21.6957926072221</v>
+        <v>83.44941743569387</v>
       </c>
       <c r="C85">
-        <v>61.74046086940653</v>
+        <v>113.8853102204682</v>
       </c>
       <c r="D85">
-        <v>11.09660916661106</v>
+        <v>75.39352323543574</v>
       </c>
       <c r="E85">
-        <v>72.33964431001758</v>
+        <v>121.9412044207263</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>42.04605745698459</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B86">
-        <v>21.71429738837912</v>
+        <v>83.35943447208068</v>
       </c>
       <c r="C86">
-        <v>62.37781752559007</v>
+        <v>113.9752931840814</v>
       </c>
       <c r="D86">
-        <v>10.95131375087229</v>
+        <v>75.25590616824492</v>
       </c>
       <c r="E86">
-        <v>73.1408011630969</v>
+        <v>122.0788214879171</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>41.94488138717362</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B87">
-        <v>21.32720231588574</v>
+        <v>83.26997736365058</v>
       </c>
       <c r="C87">
-        <v>62.56256045846151</v>
+        <v>114.0647502925115</v>
       </c>
       <c r="D87">
-        <v>10.41286230110812</v>
+        <v>75.11909332715604</v>
       </c>
       <c r="E87">
-        <v>73.47690047323913</v>
+        <v>122.215634329006</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>41.86219875605186</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B88">
-        <v>20.95725427610482</v>
+        <v>83.18103699755875</v>
       </c>
       <c r="C88">
-        <v>62.7671432359989</v>
+        <v>114.1536906586033</v>
       </c>
       <c r="D88">
-        <v>9.890845139785956</v>
+        <v>74.98307077527555</v>
       </c>
       <c r="E88">
-        <v>73.83355237231777</v>
+        <v>122.3516568808865</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>42.34662246022106</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B89">
-        <v>21.15307269600693</v>
+        <v>83.09260452116131</v>
       </c>
       <c r="C89">
-        <v>63.5401722244352</v>
+        <v>114.2421231350007</v>
       </c>
       <c r="D89">
-        <v>9.933885150844802</v>
+        <v>74.84782497365303</v>
       </c>
       <c r="E89">
-        <v>74.75935976959732</v>
+        <v>122.486902682509</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>42.37031589243406</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B90">
-        <v>20.88682739931392</v>
+        <v>83.00467133173127</v>
       </c>
       <c r="C90">
-        <v>63.85380438555419</v>
+        <v>114.3300563244308</v>
       </c>
       <c r="D90">
-        <v>9.514155562355853</v>
+        <v>74.71334276555291</v>
       </c>
       <c r="E90">
-        <v>75.22647622251226</v>
+        <v>122.6213848906091</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>42.18909301723414</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B91">
-        <v>20.41433868477783</v>
+        <v>82.91722906669123</v>
       </c>
       <c r="C91">
-        <v>63.96384734969044</v>
+        <v>114.4174985894708</v>
       </c>
       <c r="D91">
-        <v>8.887480026198723</v>
+        <v>74.5796113615167</v>
       </c>
       <c r="E91">
-        <v>75.49070600826954</v>
+        <v>122.7551162946453</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>41.86625942859121</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B92">
-        <v>19.79891838635499</v>
+        <v>82.83026959433134</v>
       </c>
       <c r="C92">
-        <v>63.93360047082744</v>
+        <v>114.5044580618307</v>
       </c>
       <c r="D92">
-        <v>8.117173679579004</v>
+        <v>74.44661832516738</v>
       </c>
       <c r="E92">
-        <v>75.61534517760342</v>
+        <v>122.8881093309947</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>41.9119651007747</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B93">
-        <v>19.55072262652058</v>
+        <v>82.74378500498364</v>
       </c>
       <c r="C93">
-        <v>64.27320757502882</v>
+        <v>114.5909426511784</v>
       </c>
       <c r="D93">
-        <v>7.713395899635437</v>
+        <v>74.3143515597117</v>
       </c>
       <c r="E93">
-        <v>76.11053430191396</v>
+        <v>123.0203760964503</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>42.35101881899003</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B94">
-        <v>19.69456624925536</v>
+        <v>82.65776760262537</v>
       </c>
       <c r="C94">
-        <v>65.0074713887247</v>
+        <v>114.6769600535367</v>
       </c>
       <c r="D94">
-        <v>7.700964737670681</v>
+        <v>74.18279929509858</v>
       </c>
       <c r="E94">
-        <v>77.00107290030937</v>
+        <v>123.1519283610635</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>42.18024503344734</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B95">
-        <v>19.22727967637727</v>
+        <v>82.57220989688632</v>
       </c>
       <c r="C95">
-        <v>65.13321039051742</v>
+        <v>114.7625177592757</v>
       </c>
       <c r="D95">
-        <v>7.076713776680883</v>
+        <v>74.05195007579529</v>
       </c>
       <c r="E95">
-        <v>77.28377629021381</v>
+        <v>123.2827775803668</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>42.63927773511453</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B96">
-        <v>19.38850278547474</v>
+        <v>82.48710459543642</v>
       </c>
       <c r="C96">
-        <v>65.89005268475432</v>
+        <v>114.8476230607256</v>
       </c>
       <c r="D96">
-        <v>7.080286010443182</v>
+        <v>73.92179274914544</v>
       </c>
       <c r="E96">
-        <v>78.19826945978588</v>
+        <v>123.4129349070166</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>42.51398137440208</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B97">
-        <v>18.96410583069283</v>
+        <v>82.40244459673195</v>
       </c>
       <c r="C97">
-        <v>66.06385691811133</v>
+        <v>114.9322830594301</v>
       </c>
       <c r="D97">
-        <v>6.497554765414115</v>
+        <v>73.79231645427511</v>
       </c>
       <c r="E97">
-        <v>78.53040798339004</v>
+        <v>123.5424112018869</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>42.84191209307235</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B98">
-        <v>18.96846484185872</v>
+        <v>82.31822298309967</v>
       </c>
       <c r="C98">
-        <v>66.71535934428597</v>
+        <v>115.0165046730624</v>
       </c>
       <c r="D98">
-        <v>6.330625261386125</v>
+        <v>73.6635106115161</v>
       </c>
       <c r="E98">
-        <v>79.35319892475857</v>
+        <v>123.6712170446459</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>42.74073602326138</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B99">
-        <v>18.5659125873802</v>
+        <v>82.23443301414021</v>
       </c>
       <c r="C99">
-        <v>66.91555945914256</v>
+        <v>115.1002946420218</v>
       </c>
       <c r="D99">
-        <v>5.768534091763712</v>
+        <v>73.53536491231709</v>
       </c>
       <c r="E99">
-        <v>79.71293795475904</v>
+        <v>123.799362743845</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>42.65805339213961</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B100">
-        <v>18.18057375267771</v>
+        <v>82.15106812043234</v>
       </c>
       <c r="C100">
-        <v>67.13553303160151</v>
+        <v>115.1836595357297</v>
       </c>
       <c r="D100">
-        <v>5.222978740835508</v>
+        <v>73.40786930961541</v>
       </c>
       <c r="E100">
-        <v>80.09312804344373</v>
+        <v>123.9268583465466</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>43.14247709630882</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B101">
-        <v>18.36106689549598</v>
+        <v>82.06812189752219</v>
       </c>
       <c r="C101">
-        <v>67.92388729712167</v>
+        <v>115.2666057586399</v>
       </c>
       <c r="D101">
-        <v>5.242580763174267</v>
+        <v>73.28101400864401</v>
       </c>
       <c r="E101">
-        <v>81.04237342944339</v>
+        <v>124.053713647518</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>43.16617052852182</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B102">
-        <v>18.0795609901683</v>
+        <v>81.9855881001811</v>
       </c>
       <c r="C102">
-        <v>68.25278006687535</v>
+        <v>115.3491395559809</v>
       </c>
       <c r="D102">
-        <v>4.799512087823516</v>
+        <v>73.15478945814991</v>
       </c>
       <c r="E102">
-        <v>81.53282896922012</v>
+        <v>124.1799381980121</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>42.9849476533219</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B103">
-        <v>17.59187550522226</v>
+        <v>81.9034606369182</v>
       </c>
       <c r="C103">
-        <v>68.37801980142153</v>
+        <v>115.4312670192438</v>
       </c>
       <c r="D103">
-        <v>4.149595096944154</v>
+        <v>73.02918634200176</v>
       </c>
       <c r="E103">
-        <v>81.82030020969964</v>
+        <v>124.3055413141603</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>42.66211406467897</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B104">
-        <v>16.96132146291188</v>
+        <v>81.82173356473358</v>
       </c>
       <c r="C104">
-        <v>68.36290666644607</v>
+        <v>115.5129940914285</v>
       </c>
       <c r="D104">
-        <v>3.356143686350194</v>
+        <v>72.90419557116556</v>
       </c>
       <c r="E104">
-        <v>81.96808444300775</v>
+        <v>124.4305320849965</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>42.70781973686246</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B105">
-        <v>16.69805419191934</v>
+        <v>81.74040108409959</v>
       </c>
       <c r="C105">
-        <v>68.71758528180558</v>
+        <v>115.5943265720625</v>
       </c>
       <c r="D105">
-        <v>2.929316019178721</v>
+        <v>72.77980827602914</v>
       </c>
       <c r="E105">
-        <v>82.48632345454621</v>
+        <v>124.5549193801329</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>43.14687345507779</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B106">
-        <v>16.82688775975622</v>
+        <v>81.65945753415807</v>
       </c>
       <c r="C106">
-        <v>69.46685915039936</v>
+        <v>115.675270122004</v>
       </c>
       <c r="D106">
-        <v>2.893928959225299</v>
+        <v>72.65601579905709</v>
       </c>
       <c r="E106">
-        <v>83.39981795093027</v>
+        <v>124.678711857105</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>42.9760996695351</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B107">
-        <v>16.34465182853603</v>
+        <v>81.57889738812239</v>
       </c>
       <c r="C107">
-        <v>69.60754751053418</v>
+        <v>115.7558302680397</v>
       </c>
       <c r="D107">
-        <v>2.246814927618416</v>
+        <v>72.53280968775863</v>
       </c>
       <c r="E107">
-        <v>83.70538441145179</v>
+        <v>124.8019179684034</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>43.43513237120229</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B108">
-        <v>16.49098553237249</v>
+        <v>81.49871524887361</v>
       </c>
       <c r="C108">
-        <v>70.3792792100321</v>
+        <v>115.8360124072884</v>
       </c>
       <c r="D108">
-        <v>2.22761578108873</v>
+        <v>72.41018168795262</v>
       </c>
       <c r="E108">
-        <v>84.64264896131586</v>
+        <v>124.9245459682094</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>43.30983601048984</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B109">
-        <v>16.05175839765407</v>
+        <v>81.41890584474092</v>
       </c>
       <c r="C109">
-        <v>70.56791362332561</v>
+        <v>115.9158218114211</v>
       </c>
       <c r="D109">
-        <v>1.622203733085136</v>
+        <v>72.28812373731432</v>
       </c>
       <c r="E109">
-        <v>84.99746828789455</v>
+        <v>125.0466039188477</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>43.63776672916011</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B110">
-        <v>16.04247369877437</v>
+        <v>81.339464025457</v>
       </c>
       <c r="C110">
-        <v>71.23305975954584</v>
+        <v>115.995263630705</v>
       </c>
       <c r="D110">
-        <v>1.434407975194397</v>
+        <v>72.16662795918958</v>
       </c>
       <c r="E110">
-        <v>85.84112548312581</v>
+        <v>125.1680996969725</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>43.53659065934914</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B111">
-        <v>15.6251682971007</v>
+        <v>81.26038475827957</v>
       </c>
       <c r="C111">
-        <v>71.44801302159758</v>
+        <v>116.0743428978825</v>
       </c>
       <c r="D111">
-        <v>0.8497538140088352</v>
+        <v>72.04568665666328</v>
       </c>
       <c r="E111">
-        <v>86.22342750468944</v>
+        <v>125.2890409994988</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>43.45390802822737</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B112">
-        <v>15.22513472508133</v>
+        <v>81.18166312427067</v>
       </c>
       <c r="C112">
-        <v>71.68268133137342</v>
+        <v>116.1530645318914</v>
       </c>
       <c r="D112">
-        <v>0.2817248017175587</v>
+        <v>71.92529230686898</v>
       </c>
       <c r="E112">
-        <v>86.62609125473719</v>
+        <v>125.4094353492931</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>43.93833173239658</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B113">
-        <v>15.39099082235097</v>
+        <v>81.10329431472614</v>
       </c>
       <c r="C113">
-        <v>72.4856726424422</v>
+        <v>116.2314333414359</v>
       </c>
       <c r="D113">
-        <v>0.2789413946388208</v>
+        <v>71.80543755552836</v>
       </c>
       <c r="E113">
-        <v>87.59772207015435</v>
+        <v>125.5292901006337</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>43.96202516460958</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B114">
-        <v>15.0949048607513</v>
+        <v>81.02527362774788</v>
       </c>
       <c r="C114">
-        <v>72.82914546846786</v>
+        <v>116.3094540284142</v>
       </c>
       <c r="D114">
-        <v>-0.1864255525520662</v>
+        <v>71.68611521170875</v>
       </c>
       <c r="E114">
-        <v>88.11047588177122</v>
+        <v>125.6486124444533</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>43.78080228940966</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B115">
-        <v>14.59269562143027</v>
+        <v>80.94759646495181</v>
       </c>
       <c r="C115">
-        <v>72.96890895738905</v>
+        <v>116.3871311912102</v>
       </c>
       <c r="D115">
-        <v>-0.8585547089506562</v>
+        <v>71.56731824278862</v>
       </c>
       <c r="E115">
-        <v>88.42015928776996</v>
+        <v>125.7674094133734</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>43.45796870076674</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B116">
-        <v>13.94767345388964</v>
+        <v>80.8702583283053</v>
       </c>
       <c r="C116">
-        <v>72.96826394764383</v>
+        <v>116.4644693278567</v>
       </c>
       <c r="D116">
-        <v>-1.674133207628707</v>
+        <v>71.44903976962067</v>
       </c>
       <c r="E116">
-        <v>88.59007060916218</v>
+        <v>125.8856878865414</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>43.50367437295022</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B117">
-        <v>13.66999302822321</v>
+        <v>80.79325481708761</v>
       </c>
       <c r="C117">
-        <v>73.33735571767724</v>
+        <v>116.5414728390744</v>
       </c>
       <c r="D117">
-        <v>-2.12300389267314</v>
+        <v>71.33127306188337</v>
       </c>
       <c r="E117">
-        <v>89.13035263857358</v>
+        <v>126.0034545942787</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>43.94272809116555</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B118">
-        <v>13.78446776707433</v>
+        <v>80.71658162496786</v>
       </c>
       <c r="C118">
-        <v>74.10098841525677</v>
+        <v>116.6181460311942</v>
       </c>
       <c r="D118">
-        <v>-2.180350886529247</v>
+        <v>71.21401153361191</v>
       </c>
       <c r="E118">
-        <v>90.06580706886035</v>
+        <v>126.1207161225501</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>43.77195430562286</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B119">
-        <v>13.28792670098331</v>
+        <v>80.64023453719469</v>
       </c>
       <c r="C119">
-        <v>74.25598191026241</v>
+        <v>116.6944931189674</v>
       </c>
       <c r="D119">
-        <v>-2.849342733976421</v>
+        <v>71.09724873890035</v>
       </c>
       <c r="E119">
-        <v>90.39325134522213</v>
+        <v>126.2374789172617</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>44.23098700729005</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B120">
-        <v>13.42000834537846</v>
+        <v>80.56420942789262</v>
       </c>
       <c r="C120">
-        <v>75.04196566920163</v>
+        <v>116.7705182282694</v>
       </c>
       <c r="D120">
-        <v>-2.890338524481663</v>
+        <v>70.98097836776672</v>
       </c>
       <c r="E120">
-        <v>91.35231253906176</v>
+        <v>126.3537492883953</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>44.10569064657759</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B121">
-        <v>12.96658162046005</v>
+        <v>80.48850225746035</v>
       </c>
       <c r="C121">
-        <v>75.24479967269514</v>
+        <v>116.8462253987017</v>
       </c>
       <c r="D121">
-        <v>-3.517466971680925</v>
+        <v>70.86519424217391</v>
       </c>
       <c r="E121">
-        <v>91.7288482648361</v>
+        <v>126.4695334139881</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>44.43362136524787</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B122">
-        <v>12.94412494770803</v>
+        <v>80.4131090700659</v>
       </c>
       <c r="C122">
-        <v>75.9231177827877</v>
+        <v>116.9216185860961</v>
       </c>
       <c r="D122">
-        <v>-3.725407525215601</v>
+        <v>70.749890312199</v>
       </c>
       <c r="E122">
-        <v>92.59265025571133</v>
+        <v>126.584837343963</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>44.3324452954369</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B123">
-        <v>12.51269205183387</v>
+        <v>80.33802599123472</v>
       </c>
       <c r="C123">
-        <v>76.15219853903993</v>
+        <v>116.9967016649273</v>
       </c>
       <c r="D123">
-        <v>-4.331667824280594</v>
+        <v>70.63506065234446</v>
       </c>
       <c r="E123">
-        <v>92.9965584151544</v>
+        <v>126.6996670038176</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>44.24976266431514</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B124">
-        <v>12.0985826296124</v>
+        <v>80.26324922552612</v>
       </c>
       <c r="C124">
-        <v>76.40094269901788</v>
+        <v>117.0714784306359</v>
       </c>
       <c r="D124">
-        <v>-4.921223991771576</v>
+        <v>70.52069945798479</v>
       </c>
       <c r="E124">
-        <v>93.42074932040185</v>
+        <v>126.8140281981773</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>44.73418636848435</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B125">
-        <v>12.25041392896857</v>
+        <v>80.18877505429468</v>
       </c>
       <c r="C125">
-        <v>77.21795880800012</v>
+        <v>117.1459526018674</v>
       </c>
       <c r="D125">
-        <v>-4.945456476312259</v>
+        <v>70.40680104194244</v>
       </c>
       <c r="E125">
-        <v>94.41382921328095</v>
+        <v>126.9279266142196</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>44.75787980069734</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B126">
-        <v>11.9403536420933</v>
+        <v>80.11459983353211</v>
       </c>
       <c r="C126">
-        <v>77.57540595930138</v>
+        <v>117.2201278226299</v>
       </c>
       <c r="D126">
-        <v>-5.432195309726687</v>
+        <v>70.29335983118774</v>
       </c>
       <c r="E126">
-        <v>94.94795491112137</v>
+        <v>127.0413678249743</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>44.57665692549742</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B127">
-        <v>11.42421998217668</v>
+        <v>80.04071999178676</v>
       </c>
       <c r="C127">
-        <v>77.72909386881815</v>
+        <v>117.2940076643753</v>
       </c>
       <c r="D127">
-        <v>-6.125620029727003</v>
+        <v>70.18037036365675</v>
       </c>
       <c r="E127">
-        <v>95.27893388072184</v>
+        <v>127.1543572925053</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>44.2538233368545</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B128">
-        <v>10.76532274210433</v>
+        <v>79.96713202815705</v>
       </c>
       <c r="C128">
-        <v>77.74232393160466</v>
+        <v>117.367595628005</v>
       </c>
       <c r="D128">
-        <v>-6.962418620655875</v>
+        <v>70.06782728518252</v>
       </c>
       <c r="E128">
-        <v>95.47006529436487</v>
+        <v>127.2669003709795</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>44.29952900903798</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B129">
-        <v>10.47381604635858</v>
+        <v>79.89383251035564</v>
       </c>
       <c r="C129">
-        <v>78.12524197171739</v>
+        <v>117.4408951458064</v>
       </c>
       <c r="D129">
-        <v>-7.432434761040987</v>
+        <v>69.95572534653452</v>
       </c>
       <c r="E129">
-        <v>96.03149277911695</v>
+        <v>127.3790023096275</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>44.73858272725331</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B130">
-        <v>10.57451278265233</v>
+        <v>79.82081807284131</v>
       </c>
       <c r="C130">
-        <v>78.90265267185428</v>
+        <v>117.5139095833207</v>
       </c>
       <c r="D130">
-        <v>-7.51085339143313</v>
+        <v>69.84405940056166</v>
       </c>
       <c r="E130">
-        <v>96.98801884593975</v>
+        <v>127.4906682556004</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>44.56780894171062</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B131">
-        <v>10.06424145696555</v>
+        <v>79.74808541501588</v>
       </c>
       <c r="C131">
-        <v>79.07137642645569</v>
+        <v>117.5866422411462</v>
       </c>
       <c r="D131">
-        <v>-8.20084385885751</v>
+        <v>69.73282439943463</v>
       </c>
       <c r="E131">
-        <v>97.33646174227874</v>
+        <v>127.6019032567274</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>45.02684164337781</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B132">
-        <v>10.18264007023757</v>
+        <v>79.6756312994832</v>
       </c>
       <c r="C132">
-        <v>79.87104321651805</v>
+        <v>117.6590963566788</v>
       </c>
       <c r="D132">
-        <v>-8.262766039624154</v>
+        <v>69.62201539198324</v>
       </c>
       <c r="E132">
-        <v>98.31644932637977</v>
+        <v>127.7127122641788</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>44.90154528266535</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B133">
-        <v>9.715577037963769</v>
+        <v>79.60345255036759</v>
       </c>
       <c r="C133">
-        <v>80.08751352736694</v>
+        <v>117.7312751057945</v>
       </c>
       <c r="D133">
-        <v>-8.910749419248489</v>
+        <v>69.51162752112482</v>
       </c>
       <c r="E133">
-        <v>98.7138399845792</v>
+        <v>127.8231001350372</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>45.22947600133563</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B134">
-        <v>9.680385702673164</v>
+        <v>79.53154605168962</v>
       </c>
       <c r="C134">
-        <v>80.77856629999809</v>
+        <v>117.8031816044724</v>
       </c>
       <c r="D134">
-        <v>-9.138165958457066</v>
+        <v>69.40165602138003</v>
       </c>
       <c r="E134">
-        <v>99.59711796112832</v>
+        <v>127.933071634782</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>45.12829993152466</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B135">
-        <v>9.235383380069777</v>
+        <v>79.45990874579628</v>
       </c>
       <c r="C135">
-        <v>81.02121648297954</v>
+        <v>117.8748189103658</v>
       </c>
       <c r="D135">
-        <v>-9.765178904856086</v>
+        <v>69.29209621647219</v>
       </c>
       <c r="E135">
-        <v>100.0217787679054</v>
+        <v>128.0426314396898</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>45.0456173004029</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B136">
-        <v>8.807750481501586</v>
+        <v>79.38853763184402</v>
       </c>
       <c r="C136">
-        <v>81.28348411930421</v>
+        <v>117.946190024318</v>
       </c>
       <c r="D136">
-        <v>-10.37541744463545</v>
+        <v>69.18294351700708</v>
       </c>
       <c r="E136">
-        <v>100.4666520454412</v>
+        <v>128.151784139155</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>45.53004100457211</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B137">
-        <v>8.946103764871154</v>
+        <v>79.31742976433179</v>
       </c>
       <c r="C137">
-        <v>82.11397824427306</v>
+        <v>118.0172978918303</v>
       </c>
       <c r="D137">
-        <v>-10.42026277584343</v>
+        <v>69.07419341822961</v>
       </c>
       <c r="E137">
-        <v>101.4803447849876</v>
+        <v>128.2605342379324</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>45.55373443678509</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B138">
-        <v>8.622610441660129</v>
+        <v>79.24658225168274</v>
       </c>
       <c r="C138">
-        <v>82.48485843191006</v>
+        <v>118.0881454044793</v>
       </c>
       <c r="D138">
-        <v>-10.92754566548544</v>
+        <v>68.96584149785457</v>
       </c>
       <c r="E138">
-        <v>102.0350145390556</v>
+        <v>128.3688861583075</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>45.37251156158517</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B139">
-        <v>8.093088253399174</v>
+        <v>79.17599225487204</v>
       </c>
       <c r="C139">
-        <v>82.65193486977117</v>
+        <v>118.15873540129</v>
       </c>
       <c r="D139">
-        <v>-11.64144637261448</v>
+        <v>68.8578834139682</v>
       </c>
       <c r="E139">
-        <v>102.3864694957848</v>
+        <v>128.4768442421939</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>45.04967797294225</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B140">
-        <v>7.420846530110993</v>
+        <v>79.10565698609948</v>
       </c>
       <c r="C140">
-        <v>82.67850941577351</v>
+        <v>118.2290706700626</v>
       </c>
       <c r="D140">
-        <v>-12.49865358946096</v>
+        <v>68.75031490299799</v>
       </c>
       <c r="E140">
-        <v>102.5980095353455</v>
+        <v>128.5844127531641</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>45.09538364512574</v>
+        <v>98.66736382808102</v>
       </c>
       <c r="B141">
-        <v>7.116038941967815</v>
+        <v>79.03557370750475</v>
       </c>
       <c r="C141">
-        <v>83.07472834828366</v>
+        <v>118.2991539486573</v>
       </c>
       <c r="D141">
-        <v>-12.9890116893599</v>
+        <v>68.64313177774795</v>
       </c>
       <c r="E141">
-        <v>103.1797789796114</v>
+        <v>128.6915958784141</v>
       </c>
     </row>
   </sheetData>
